--- a/classification_data/results/learning_rate_loss_moment_0.1.xlsx
+++ b/classification_data/results/learning_rate_loss_moment_0.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0.001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4926959409242604</v>
+        <v>0.5544772441154427</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.011</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4916245868343456</v>
+        <v>0.5157909174449931</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.021</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4914913368414721</v>
+        <v>0.6386381353690034</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.031</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4913589001211626</v>
+        <v>0.6385591614814735</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.04099999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4912273366245185</v>
+        <v>0.474651296585555</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.05099999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4910967014370937</v>
+        <v>0.4964639205818659</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.06099999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4909670453034255</v>
+        <v>0.6380763262409226</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4908384151928674</v>
+        <v>0.6378593152758988</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.08099999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4907102937054462</v>
+        <v>0.5120433741123688</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.09099999999999998</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4887148455753864</v>
+        <v>0.5892057969674052</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.101</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4885787992123577</v>
+        <v>0.4332868284946468</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.111</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4884348451643515</v>
+        <v>0.5091556248423418</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.121</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4882922699019975</v>
+        <v>0.4985916353348261</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.131</v>
       </c>
       <c r="B15" t="n">
-        <v>0.488151110299974</v>
+        <v>0.5409110865385117</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.141</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4880113980660408</v>
+        <v>0.5392453787474908</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.151</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4878731668087511</v>
+        <v>0.5307752122985714</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.161</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4877364649529936</v>
+        <v>0.4804333395528049</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.171</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4876013379849731</v>
+        <v>0.5047070824851014</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.181</v>
       </c>
       <c r="B20" t="n">
-        <v>0.487467819761831</v>
+        <v>0.4883807209462224</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.191</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4873359395394428</v>
+        <v>0.4955432776638128</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.201</v>
       </c>
       <c r="B22" t="n">
-        <v>0.487205122119333</v>
+        <v>0.4933522461874953</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.211</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4891658924797356</v>
+        <v>0.4879926947710554</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.221</v>
       </c>
       <c r="B24" t="n">
-        <v>0.489056851585528</v>
+        <v>0.4909059045874859</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.231</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4889492942516753</v>
+        <v>0.5006266817230713</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.241</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4888432531645066</v>
+        <v>0.4913649631613139</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.2509999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4887387455677602</v>
+        <v>0.4925771961147966</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.261</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4886357897462825</v>
+        <v>0.4903742560133955</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.271</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4893846346094132</v>
+        <v>0.4871526945082794</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.281</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4893167543011073</v>
+        <v>0.5304995053162173</v>
       </c>
     </row>
     <row r="31">
@@ -682,15 +682,47 @@
         <v>0.291</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4892435409924033</v>
+        <v>0.4906234423369923</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4880189509951329</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6082449760049399</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.491013339478269</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="n">
-        <v>0.4933757029046449</v>
+      <c r="B35" t="n">
+        <v>0.4939508090986773</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5325387000363381</v>
       </c>
     </row>
   </sheetData>
